--- a/GameModules/Localization_BuffDataKey.xlsx
+++ b/GameModules/Localization_BuffDataKey.xlsx
@@ -2032,7 +2032,7 @@
       </c>
       <c r="H41" s="1" t="inlineStr">
         <is>
-          <t>ඞ[Перелом]</t>
+          <t>[Перелом]</t>
         </is>
       </c>
     </row>
@@ -2080,8 +2080,8 @@
       </c>
       <c r="H42" s="1" t="inlineStr">
         <is>
-          <t>ඞЗа каждую стопку [Перелом] при каждой проверке будет добавляться штрафной кубик
-Применяется только при некоторых проверках атрибутов и навыков</t>
+          <t>За каждое значение [Перелом] проверкам будет добавляться штрафной кубик
+Применяется только при некоторых проверках атрибутов и навыков.</t>
         </is>
       </c>
     </row>
@@ -11361,7 +11361,7 @@
       </c>
       <c r="H260" s="1" t="inlineStr">
         <is>
-          <t>ඞПрячется</t>
+          <t>Прячется</t>
         </is>
       </c>
     </row>
@@ -11403,7 +11403,7 @@
       </c>
       <c r="H261" s="1" t="inlineStr">
         <is>
-          <t>ඞНевосприимчив к [Перелом]</t>
+          <t>Невосприимчив к [Перелом]</t>
         </is>
       </c>
     </row>
@@ -11445,7 +11445,7 @@
       </c>
       <c r="H262" s="1" t="inlineStr">
         <is>
-          <t>ඞЭто существо невосприимчиво к эффекту [Перелом]</t>
+          <t>Это существо невосприимчиво к статусу [Перелом]</t>
         </is>
       </c>
     </row>
